--- a/ScoreSheet/スコアシートの使い方.xlsx
+++ b/ScoreSheet/スコアシートの使い方.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -88,38 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>紅茶が飲みたい艦隊</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここは譲れません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赤城定食</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>慢心、ダメ、ゼッタイ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Team 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Team 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Team 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Team 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スコアシートの使い方</t>
     <rPh sb="7" eb="8">
       <t>ツカ</t>
@@ -130,15 +98,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Team 1</t>
+    <t>チーム シアたん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Team 3</t>
+    <t>チーム Nia</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Team 4</t>
+    <t>チーム みょうが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム その他</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1396,6 +1371,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,33 +1467,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,9 +1491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,61 +1503,52 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1540,12 +1563,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,9 +1590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,91 +1602,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1681,6 +1674,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,9 +1698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,34 +1719,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4281,6 +4256,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4316,6 +4308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4497,67 +4506,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="A1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="59" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v xml:space="preserve"> Team 1</v>
-      </c>
-      <c r="C2" s="36" t="s">
+        <v>チーム Nia</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35" t="str">
+      <c r="E2" s="55" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>Team 2</v>
-      </c>
-      <c r="F2" s="36">
+        <v>チーム みょうが</v>
+      </c>
+      <c r="F2" s="56">
         <v>53</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="58">
         <v>53</v>
       </c>
-      <c r="H2" s="35" t="str">
+      <c r="H2" s="55" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>Team 3</v>
-      </c>
-      <c r="I2" s="36" t="s">
+        <v>チーム シアたん</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="35" t="str">
+      <c r="K2" s="55" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>Team 4</v>
-      </c>
-      <c r="L2" s="36" t="s">
+        <v>チーム その他</v>
+      </c>
+      <c r="L2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -4571,12 +4580,12 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
@@ -4586,49 +4595,49 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="25">
+      <c r="N3" s="52">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="53">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>0</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="54">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="31" t="str">
+      <c r="A4" s="29"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="46" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="str">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="str">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="30"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
-        <v>15</v>
+      <c r="A5" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="str">
         <f>IF(F3="","",F3)</f>
@@ -4642,58 +4651,58 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="61"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="46">
+      <c r="N5" s="34">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="36">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="38">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="32" t="str">
+      <c r="A6" s="29"/>
+      <c r="B6" s="44" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="31" t="str">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="46" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="31" t="str">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="30"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="53" t="s">
-        <v>16</v>
+      <c r="A7" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>IF(I3="","",I3)</f>
@@ -4719,55 +4728,55 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="61"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="46">
+      <c r="N7" s="34">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="36">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="38">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="32" t="str">
+      <c r="A8" s="29"/>
+      <c r="B8" s="44" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="31" t="str">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="46" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
-        <v>17</v>
+      <c r="A9" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -4805,48 +4814,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v/>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="46">
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="34">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="36">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="38">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="50" t="str">
+      <c r="A10" s="22"/>
+      <c r="B10" s="40" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="str">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="str">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4855,30 +4864,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
@@ -4892,6 +4877,30 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:G6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E4:M4">
@@ -5019,67 +5028,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="A1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="85" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>Team 1</v>
-      </c>
-      <c r="C2" s="72" t="s">
+        <v>チーム Nia</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="74" t="str">
+      <c r="E2" s="88" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>Team 2</v>
-      </c>
-      <c r="F2" s="75">
+        <v>チーム みょうが</v>
+      </c>
+      <c r="F2" s="89">
         <v>53</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="90">
         <v>53</v>
       </c>
-      <c r="H2" s="77" t="str">
+      <c r="H2" s="91" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>Team 3</v>
-      </c>
-      <c r="I2" s="72" t="s">
+        <v>チーム シアたん</v>
+      </c>
+      <c r="I2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="77" t="str">
+      <c r="K2" s="91" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>Team 4</v>
-      </c>
-      <c r="L2" s="72" t="s">
+        <v>チーム その他</v>
+      </c>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -5093,12 +5102,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="A3" s="93" t="str">
+        <f>①チーム名のエントリー!A3</f>
+        <v>チーム Nia</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
       <c r="E3" s="14">
         <v>7</v>
       </c>
@@ -5112,49 +5122,50 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="25">
+      <c r="N3" s="52">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O3" s="27">
+      <c r="O3" s="53">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>1.0065</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="54">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="85" t="str">
+      <c r="A4" s="73"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="78" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="32" t="str">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="44" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="str">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="30"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
-        <v>15</v>
+      <c r="A5" s="81" t="str">
+        <f>①チーム名のエントリー!A5</f>
+        <v>チーム みょうが</v>
       </c>
       <c r="B5" s="17">
         <f>IF(F3="","",F3)</f>
@@ -5168,58 +5179,59 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="68"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="46">
+      <c r="N5" s="34">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="36">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>-1E-3</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="38">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="82" t="str">
+      <c r="A6" s="82"/>
+      <c r="B6" s="95" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="31" t="str">
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="46" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="31" t="str">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="30"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
-        <v>20</v>
+      <c r="A7" s="65" t="str">
+        <f>①チーム名のエントリー!A7</f>
+        <v>チーム シアたん</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>IF(I3="","",I3)</f>
@@ -5245,55 +5257,56 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="46">
+      <c r="N7" s="34">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="36">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="38">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="32" t="str">
+      <c r="A8" s="73"/>
+      <c r="B8" s="44" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="31" t="str">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="46" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="30"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
-        <v>21</v>
+      <c r="A9" s="65" t="str">
+        <f>①チーム名のエントリー!A9</f>
+        <v>チーム その他</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -5331,48 +5344,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v/>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="46">
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="34">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="36">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="38">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="50" t="str">
+      <c r="A10" s="66"/>
+      <c r="B10" s="40" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="str">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="str">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5381,29 +5394,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -5418,6 +5408,29 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E4:M4">
@@ -5490,67 +5503,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="A1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="85" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>紅茶が飲みたい艦隊</v>
-      </c>
-      <c r="C2" s="72" t="s">
+        <v>チーム Nia</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="77" t="str">
+      <c r="E2" s="91" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>ここは譲れません。</v>
-      </c>
-      <c r="F2" s="72">
+        <v>チーム みょうが</v>
+      </c>
+      <c r="F2" s="86">
         <v>53</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="87">
         <v>53</v>
       </c>
-      <c r="H2" s="77" t="str">
+      <c r="H2" s="91" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>赤城定食</v>
-      </c>
-      <c r="I2" s="72" t="s">
+        <v>チーム シアたん</v>
+      </c>
+      <c r="I2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="77" t="str">
+      <c r="K2" s="91" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>慢心、ダメ、ゼッタイ！</v>
-      </c>
-      <c r="L2" s="72" t="s">
+        <v>チーム その他</v>
+      </c>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -5564,12 +5577,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="93" t="str">
+        <f>①チーム名のエントリー!A3</f>
+        <v>チーム Nia</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="10">
         <v>7</v>
       </c>
@@ -5583,49 +5597,50 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="25">
+      <c r="N3" s="52">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O3" s="98">
+      <c r="O3" s="112">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>1.0065</v>
       </c>
-      <c r="P3" s="100">
+      <c r="P3" s="113">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="31" t="str">
+      <c r="A4" s="73"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="46" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="str">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="str">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="101"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
-        <v>11</v>
+      <c r="A5" s="65" t="str">
+        <f>①チーム名のエントリー!A5</f>
+        <v>チーム みょうが</v>
       </c>
       <c r="B5" s="7">
         <f>IF(F3="","",F3)</f>
@@ -5639,58 +5654,59 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="61"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="46">
+      <c r="N5" s="34">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="98">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>-1E-3</v>
       </c>
-      <c r="P5" s="105">
+      <c r="P5" s="100">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
-      <c r="B6" s="32" t="str">
+      <c r="A6" s="73"/>
+      <c r="B6" s="44" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="31" t="str">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="46" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="106" t="str">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="109" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="L6" s="107"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="101"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
-        <v>12</v>
+      <c r="A7" s="65" t="str">
+        <f>①チーム名のエントリー!A7</f>
+        <v>チーム シアたん</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>IF(I3="","",I3)</f>
@@ -5716,9 +5732,9 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="14">
         <v>11</v>
       </c>
@@ -5728,49 +5744,50 @@
       <c r="M7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="102">
+      <c r="N7" s="105">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="98">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>1.0055000000000001</v>
       </c>
-      <c r="P7" s="105">
+      <c r="P7" s="100">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="32" t="str">
+      <c r="A8" s="73"/>
+      <c r="B8" s="44" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="85" t="str">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="78" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="101"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
-        <v>13</v>
+      <c r="A9" s="65" t="str">
+        <f>①チーム名のエントリー!A9</f>
+        <v>チーム その他</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IF(L3="","",L3)</f>
@@ -5808,48 +5825,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v>×</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="46">
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="34">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>0</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="98">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="100">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="50" t="str">
+      <c r="A10" s="66"/>
+      <c r="B10" s="40" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="str">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v/>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="82" t="str">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="95" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="113"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="101"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5858,29 +5875,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -5895,6 +5889,29 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E4:M4">
@@ -5956,7 +5973,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5967,67 +5984,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="A1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="85" t="str">
         <f>IF( A3="",  "", A3 )</f>
-        <v>紅茶が飲みたい艦隊</v>
-      </c>
-      <c r="C2" s="72" t="s">
+        <v>チーム Nia</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="77" t="str">
+      <c r="E2" s="91" t="str">
         <f>IF( A5="",  "", A5 )</f>
-        <v>ここは譲れません。</v>
-      </c>
-      <c r="F2" s="72">
+        <v>チーム みょうが</v>
+      </c>
+      <c r="F2" s="86">
         <v>53</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="87">
         <v>53</v>
       </c>
-      <c r="H2" s="77" t="str">
+      <c r="H2" s="91" t="str">
         <f>IF( A7="",  "", A7 )</f>
-        <v>赤城定食</v>
-      </c>
-      <c r="I2" s="72" t="s">
+        <v>チーム シアたん</v>
+      </c>
+      <c r="I2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="77" t="str">
+      <c r="K2" s="91" t="str">
         <f>IF( A9="",  "", A9 )</f>
-        <v>慢心、ダメ、ゼッタイ！</v>
-      </c>
-      <c r="L2" s="72" t="s">
+        <v>チーム その他</v>
+      </c>
+      <c r="L2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="92" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="9" t="s">
@@ -6041,12 +6058,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
+      <c r="A3" s="93" t="str">
+        <f>①チーム名のエントリー!A3</f>
+        <v>チーム Nia</v>
+      </c>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
       <c r="E3" s="10">
         <v>7</v>
       </c>
@@ -6070,49 +6088,50 @@
         <v>-4</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="126">
+      <c r="N3" s="135">
         <f>COUNTIF(B4:M4,"WINNER")</f>
         <v>2</v>
       </c>
-      <c r="O3" s="127">
+      <c r="O3" s="136">
         <f>N3+(SUM(E3,H3,K3)*1.5-SUM(F3,I3,L3))/1000</f>
         <v>2.0225</v>
       </c>
-      <c r="P3" s="129">
+      <c r="P3" s="137">
         <f>RANK(O3,(O$3,O$5,O$7,O$9))</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="31" t="str">
+      <c r="A4" s="73"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="46" t="str">
         <f>IF(OR(E3="",F3="", AND(E3=F3,G3="")),"",IF(E3&gt;F3,"WINNER",IF(E3&lt;F3,"LOSER",IF(G3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="str">
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="str">
         <f t="shared" ref="H4" si="0">IF(OR(H3="",I3="", AND(H3=I3,J3="")),"",IF(H3&gt;I3,"WINNER",IF(H3&lt;I3,"LOSER",IF(J3="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="str">
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="str">
         <f t="shared" ref="K4" si="1">IF(OR(K3="",L3="", AND(K3=L3,M3="")),"",IF(K3&gt;L3,"WINNER",IF(K3&lt;L3,"LOSER",IF(M3="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="130"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="116"/>
     </row>
     <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
-        <v>11</v>
+      <c r="A5" s="65" t="str">
+        <f>①チーム名のエントリー!A5</f>
+        <v>チーム みょうが</v>
       </c>
       <c r="B5" s="7">
         <f>IF(F3="","",F3)</f>
@@ -6126,9 +6145,9 @@
         <f>IF(G3="","",IF(G3="○","×","○"))</f>
         <v/>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="116"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="5">
         <v>11</v>
       </c>
@@ -6145,49 +6164,50 @@
       <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="120">
+      <c r="N5" s="118">
         <f>COUNTIF(B6:M6,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O5" s="128">
+      <c r="O5" s="114">
         <f>N5+(SUM(B5,H5,K5)*1.5-SUM(C5,I5,L5))/1000</f>
         <v>1.0085</v>
       </c>
-      <c r="P5" s="130">
+      <c r="P5" s="116">
         <f>RANK(O5,(O$3,O$5,O$7,O$9))</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="32" t="str">
+      <c r="A6" s="73"/>
+      <c r="B6" s="44" t="str">
         <f>IF(OR(B5="",C5="", AND(B5=C5,D5="")),"",IF(B5&gt;C5,"WINNER",IF(B5&lt;C5,"LOSER",IF(D5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="31" t="str">
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="46" t="str">
         <f>IF(OR(H5="",I5="", AND(H5=I5,J5="")),"",IF(H5&gt;I5,"WINNER",IF(H5&lt;I5,"LOSER",IF(J5="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="31" t="str">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="str">
         <f t="shared" ref="K6" si="2">IF(OR(K5="",L5="", AND(K5=L5,M5="")),"",IF(K5&gt;L5,"WINNER",IF(K5&lt;L5,"LOSER",IF(M5="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="130"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="116"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
-        <v>12</v>
+      <c r="A7" s="65" t="str">
+        <f>①チーム名のエントリー!A7</f>
+        <v>チーム シアたん</v>
       </c>
       <c r="B7" s="7">
         <f>IF(I3="","",I3)</f>
@@ -6213,9 +6233,9 @@
         <f>IF(J5="","",IF(J5="○","×","○"))</f>
         <v/>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="126"/>
       <c r="K7" s="5">
         <v>11</v>
       </c>
@@ -6225,49 +6245,50 @@
       <c r="M7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="120">
+      <c r="N7" s="118">
         <f>COUNTIF(B8:M8,"WINNER")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="128">
+      <c r="O7" s="114">
         <f>N7+(SUM(B7,E7,K7)*1.5-SUM(C7,F7,L7))/1000</f>
         <v>2.0285000000000002</v>
       </c>
-      <c r="P7" s="130">
+      <c r="P7" s="116">
         <f>RANK(O7,(O$3,O$5,O$7,O$9))</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="32" t="str">
+      <c r="A8" s="73"/>
+      <c r="B8" s="44" t="str">
         <f>IF(OR(B7="",C7="", AND(B7=C7,D7="")),"",IF(B7&gt;C7,"WINNER",IF(B7&lt;C7,"LOSER",IF(D7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="31" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46" t="str">
         <f>IF(OR(E7="",F7="", AND(E7=F7,G7="")),"",IF(E7&gt;F7,"WINNER",IF(E7&lt;F7,"LOSER",IF(G7="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="31" t="str">
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="46" t="str">
         <f>IF(OR(K7="",L7="", AND(K7=L7,M7="")),"",IF(K7&gt;L7,"WINNER",IF(K7&lt;L7,"LOSER",IF(M7="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="130"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="116"/>
     </row>
     <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
-        <v>13</v>
+      <c r="A9" s="65" t="str">
+        <f>①チーム名のエントリー!A9</f>
+        <v>チーム その他</v>
       </c>
       <c r="B9" s="7">
         <f>IF(L3="","",L3)</f>
@@ -6305,48 +6326,48 @@
         <f>IF(M7="","",IF(M7="○","×","○"))</f>
         <v>×</v>
       </c>
-      <c r="K9" s="114"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="120">
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="118">
         <f>COUNTIF(B10:M10,"WINNER")</f>
         <v>1</v>
       </c>
-      <c r="O9" s="128">
+      <c r="O9" s="114">
         <f>N9+(SUM(B9,E9,H9)*1.5-SUM(C9,F9,I9))/1000</f>
         <v>0.99050000000000005</v>
       </c>
-      <c r="P9" s="130">
+      <c r="P9" s="116">
         <f>RANK(O9,(O$3,O$5,O$7,O$9))</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="50" t="str">
+      <c r="A10" s="66"/>
+      <c r="B10" s="40" t="str">
         <f>IF(OR(B9="",C9="", AND(B9=C9,D9="")),"",IF(B9&gt;C9,"WINNER",IF(B9&lt;C9,"LOSER",IF(D9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52" t="str">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42" t="str">
         <f>IF(OR(E9="",F9="", AND(E9=F9,G9="")),"",IF(E9&gt;F9,"WINNER",IF(E9&lt;F9,"LOSER",IF(G9="○","WINNER","LOSER"))))</f>
         <v>WINNER</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52" t="str">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42" t="str">
         <f>IF(OR(H9="",I9="", AND(H9=I9,J9="")),"",IF(H9&gt;I9,"WINNER",IF(H9&lt;I9,"LOSER",IF(J9="○","WINNER","LOSER"))))</f>
         <v>LOSER</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="117"/>
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6355,29 +6376,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E5:G6"/>
     <mergeCell ref="N5:N6"/>
@@ -6392,6 +6390,29 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:N10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E4:M4">
